--- a/data.xlsx
+++ b/data.xlsx
@@ -107,6 +107,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,6 +128,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -158,6 +160,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -184,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +203,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,7 +310,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,19 +364,20 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -359,13 +385,13 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -379,19 +405,19 @@
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -399,19 +425,19 @@
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -419,19 +445,19 @@
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -439,16 +465,16 @@
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -456,19 +482,19 @@
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -476,19 +502,19 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -496,19 +522,19 @@
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -516,13 +542,13 @@
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="0" t="n">
